--- a/mobi_client/mobi_client/mobi_config/excel/RPG_道具和线索表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/RPG_道具和线索表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C0E658-086D-4B48-90BE-32812B703FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3D343D-3E97-4DC9-85E6-1A41ED2839A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25290" yWindow="0" windowWidth="13500" windowHeight="20835" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27630" yWindow="1170" windowWidth="13500" windowHeight="16545" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RPGItem" sheetId="2" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/excel/RPG_道具和线索表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/RPG_道具和线索表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RPGItem" sheetId="2" r:id="rId1"/>
@@ -1229,7 +1229,7 @@
     <t>老人和孙女的合影</t>
   </si>
   <si>
-    <t>老人和少女的合影，看起来是在庆祝老人70岁的生日。黑发黑瞳的少女穿着白色衬衫，衬衫上面有一个很熟悉的标志。</t>
+    <t>老人和少女的合影，看起来是在庆祝老人70岁的生日。黑发黑瞳的少女穿着白色衬衫，照片中有个熟悉的标志。</t>
   </si>
   <si>
     <t>ui_rpgcluepackage/prologue/C1_1101003</t>
@@ -2225,7 +2225,7 @@
     <t>阿斯塔特晶体</t>
   </si>
   <si>
-    <t>未定级异质物，两周前从联合议会的收容点遗失，调查署怀疑是内部人员所为。目标在沉默状态下为一主一从两块等大的晶体，在不同人手中能瞬间变为不同的材质和形态。</t>
+    <t>未定级异质物，两周前从联合议会遗失。目标在沉默状态下为一主一从两块等大的晶体，在不同人手中能瞬间变为不同的材质和形态。</t>
   </si>
   <si>
     <r>
@@ -8513,12 +8513,12 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -8768,6 +8768,9 @@
       <c r="I5" s="37" t="s">
         <v>206</v>
       </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
       <c r="N5" s="2">
         <v>4</v>
       </c>
@@ -8923,6 +8926,9 @@
         <v>0</v>
       </c>
       <c r="I10" s="37"/>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
       <c r="N10" s="2">
         <v>0</v>
       </c>
@@ -10109,11 +10115,11 @@
   <dimension ref="A1:AA79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M26" sqref="M26"/>
+      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -10129,7 +10135,7 @@
     <col min="9" max="9" width="45.375" style="37" customWidth="1"/>
     <col min="10" max="10" width="14.125" style="2" customWidth="1"/>
     <col min="11" max="13" width="19.125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.75" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.75" style="2" customWidth="1"/>
     <col min="15" max="15" width="11.375" style="2" customWidth="1"/>
     <col min="16" max="16" width="20.25" style="2" customWidth="1"/>
     <col min="17" max="16384" width="9" style="2"/>
@@ -10817,12 +10823,6 @@
       </c>
       <c r="I19" s="37" t="s">
         <v>399</v>
-      </c>
-      <c r="L19" s="2">
-        <v>11121</v>
-      </c>
-      <c r="M19" s="2">
-        <v>1</v>
       </c>
       <c r="N19" s="2">
         <v>4</v>
@@ -12401,12 +12401,12 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
